--- a/markDump/Test.xlsx
+++ b/markDump/Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1ceee7d7003abe1/Documents/School Work/comp sci/markDump/markDump/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qazth\OneDrive\Documents\School Work\comp sci\markDump\markDump\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{78C7D05C-A418-4204-99B7-D8DFC7B3C2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3AA0A581-505F-4B92-A143-6319A2E5D5F1}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{78C7D05C-A418-4204-99B7-D8DFC7B3C2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9EB156A8-5B87-42F2-9508-CD4C6426F027}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8310" xr2:uid="{59F4423C-F44E-4146-8F57-863A0B5842E8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>TEST</t>
+    <t>bob</t>
   </si>
 </sst>
 </file>

--- a/markDump/Test.xlsx
+++ b/markDump/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qazth\OneDrive\Documents\School Work\comp sci\markDump\markDump\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{78C7D05C-A418-4204-99B7-D8DFC7B3C2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9EB156A8-5B87-42F2-9508-CD4C6426F027}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{78C7D05C-A418-4204-99B7-D8DFC7B3C2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D85E19B-C29D-433E-8BD4-3A79033F115C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8310" xr2:uid="{59F4423C-F44E-4146-8F57-863A0B5842E8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>bob</t>
+    <t>Ah</t>
   </si>
 </sst>
 </file>
